--- a/biology/Zoologie/Cacopsylla_mali/Cacopsylla_mali.xlsx
+++ b/biology/Zoologie/Cacopsylla_mali/Cacopsylla_mali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacopsylla mali (la psylle du pommier) est une espèce d'insectes hémiptères de la famille des Psyllidae, d'origine européenne.
 Cet insecte suceur parasite les pommiers, les larves se nourrissant sur les jeunes feuilles et les bourgeons et excrétant un miellat qui provoque la formation de fumagine.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life :
 Chermes mali Schmidberger, 1836
 Psylla claripennis Meyer-Dür, 1871
 Psylla mali Schmidberger, 1836
@@ -547,9 +561,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Cacopsylla mali comprend l'Europe ainsi que la Turquie, le Japon et le Canada[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Cacopsylla mali comprend l'Europe ainsi que la Turquie, le Japon et le Canada.
 </t>
         </is>
       </c>
